--- a/CASUAL/LA CTO/ANGCAYA, JENNY ROSE.xlsx
+++ b/CASUAL/LA CTO/ANGCAYA, JENNY ROSE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47E4BCD-068F-48CE-AE88-90C61ECC7CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE BALANCE" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE BALANCE'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
   <si>
     <t>PERIOD</t>
   </si>
@@ -316,12 +315,18 @@
   </si>
   <si>
     <t>12/1,4,7,11/2023</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>12/12,14,,20,21/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -696,14 +701,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -713,9 +721,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1227,7 +1232,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1244,25 +1249,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K118" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K118" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1274,25 +1279,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K68" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K68" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1599,34 +1604,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4248" topLeftCell="A90" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4245" topLeftCell="A90" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1638,16 +1643,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1656,16 +1661,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1676,16 +1681,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1693,7 +1698,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1706,24 +1711,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +1763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1767,7 +1772,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>37.460999999999991</v>
+        <v>38.710999999999991</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1777,12 +1782,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>86.75</v>
+        <v>88</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>45</v>
       </c>
@@ -1804,7 +1809,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -1824,7 +1829,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="48"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -1848,7 +1853,7 @@
         <v>43159</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -1868,7 +1873,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -1888,7 +1893,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -1908,7 +1913,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>43252</v>
       </c>
@@ -1928,7 +1933,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -1948,7 +1953,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -1968,7 +1973,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="48"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -1992,7 +1997,7 @@
         <v>43356</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -2012,7 +2017,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -2038,7 +2043,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -2064,7 +2069,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
       <c r="B23" s="20" t="s">
         <v>48</v>
@@ -2084,7 +2089,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
         <v>51</v>
       </c>
@@ -2102,7 +2107,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>43466</v>
       </c>
@@ -2122,7 +2127,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>43497</v>
       </c>
@@ -2142,7 +2147,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>43525</v>
       </c>
@@ -2162,7 +2167,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>43556</v>
       </c>
@@ -2182,7 +2187,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>43586</v>
       </c>
@@ -2202,7 +2207,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>43617</v>
       </c>
@@ -2222,7 +2227,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>43647</v>
       </c>
@@ -2246,7 +2251,7 @@
         <v>43655</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>43678</v>
       </c>
@@ -2266,7 +2271,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>43709</v>
       </c>
@@ -2290,7 +2295,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>43739</v>
       </c>
@@ -2312,7 +2317,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>43770</v>
       </c>
@@ -2336,7 +2341,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>43800</v>
       </c>
@@ -2362,7 +2367,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
         <v>44</v>
       </c>
@@ -2380,7 +2385,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>43831</v>
       </c>
@@ -2400,7 +2405,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="48"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>43862</v>
       </c>
@@ -2420,7 +2425,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="48"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>43891</v>
       </c>
@@ -2440,7 +2445,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <f>EDATE(A40,1)</f>
         <v>43922</v>
@@ -2461,7 +2466,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <f t="shared" ref="A42:A45" si="0">EDATE(A41,1)</f>
         <v>43952</v>
@@ -2482,7 +2487,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>43983</v>
@@ -2503,7 +2508,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>44013</v>
@@ -2524,7 +2529,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <f t="shared" si="0"/>
         <v>44044</v>
@@ -2545,7 +2550,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>44075</v>
       </c>
@@ -2565,7 +2570,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="48"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>44105</v>
       </c>
@@ -2585,7 +2590,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>44136</v>
       </c>
@@ -2605,7 +2610,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
         <v>44166</v>
       </c>
@@ -2629,7 +2634,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
         <v>58</v>
       </c>
@@ -2647,7 +2652,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>44197</v>
       </c>
@@ -2667,7 +2672,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <f>EDATE(A51,1)</f>
         <v>44228</v>
@@ -2688,7 +2693,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <f t="shared" ref="A53:A58" si="1">EDATE(A52,1)</f>
         <v>44256</v>
@@ -2709,7 +2714,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <f t="shared" si="1"/>
         <v>44287</v>
@@ -2730,7 +2735,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <f t="shared" si="1"/>
         <v>44317</v>
@@ -2751,7 +2756,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <f t="shared" si="1"/>
         <v>44348</v>
@@ -2772,7 +2777,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <f t="shared" si="1"/>
         <v>44378</v>
@@ -2793,7 +2798,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <f t="shared" si="1"/>
         <v>44409</v>
@@ -2814,7 +2819,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>44440</v>
       </c>
@@ -2834,7 +2839,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>44470</v>
       </c>
@@ -2854,7 +2859,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>44501</v>
       </c>
@@ -2880,7 +2885,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="41">
         <v>44531</v>
       </c>
@@ -2906,7 +2911,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="20" t="s">
         <v>64</v>
@@ -2928,7 +2933,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
         <v>65</v>
       </c>
@@ -2946,7 +2951,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>44562</v>
       </c>
@@ -2966,7 +2971,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <f>EDATE(A65,1)</f>
         <v>44593</v>
@@ -2987,7 +2992,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <f t="shared" ref="A67:A70" si="2">EDATE(A66,1)</f>
         <v>44621</v>
@@ -3014,7 +3019,7 @@
         <v>44631</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <f t="shared" si="2"/>
         <v>44652</v>
@@ -3039,7 +3044,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <f t="shared" si="2"/>
         <v>44682</v>
@@ -3064,7 +3069,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <f t="shared" si="2"/>
         <v>44713</v>
@@ -3091,7 +3096,7 @@
         <v>44718</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="20" t="s">
         <v>64</v>
@@ -3113,7 +3118,7 @@
         <v>44729</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
       <c r="B72" s="20" t="s">
         <v>80</v>
@@ -3135,7 +3140,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
       <c r="B73" s="20" t="s">
         <v>87</v>
@@ -3155,7 +3160,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="48"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>44743</v>
       </c>
@@ -3181,7 +3186,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="20" t="s">
         <v>80</v>
@@ -3203,7 +3208,7 @@
         <v>44750</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="20" t="s">
         <v>86</v>
@@ -3223,7 +3228,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="48"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>44774</v>
       </c>
@@ -3249,7 +3254,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="20" t="s">
         <v>82</v>
@@ -3269,7 +3274,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="48"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41">
         <v>44805</v>
       </c>
@@ -3295,7 +3300,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="B80" s="20" t="s">
         <v>82</v>
@@ -3315,7 +3320,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="48"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
         <v>44848</v>
       </c>
@@ -3341,7 +3346,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
         <v>44866</v>
       </c>
@@ -3367,7 +3372,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41"/>
       <c r="B83" s="20" t="s">
         <v>78</v>
@@ -3387,7 +3392,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="48"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
         <v>44896</v>
       </c>
@@ -3413,7 +3418,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
       <c r="B85" s="20" t="s">
         <v>77</v>
@@ -3433,7 +3438,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="47" t="s">
         <v>68</v>
       </c>
@@ -3451,7 +3456,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="41">
         <v>44927</v>
       </c>
@@ -3471,7 +3476,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41">
         <v>44958</v>
       </c>
@@ -3495,7 +3500,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41">
         <v>44986</v>
       </c>
@@ -3515,7 +3520,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41">
         <v>45017</v>
       </c>
@@ -3541,7 +3546,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="41">
         <v>45047</v>
       </c>
@@ -3561,7 +3566,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41">
         <v>45078</v>
       </c>
@@ -3581,7 +3586,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="48"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41">
         <v>45108</v>
       </c>
@@ -3601,7 +3606,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="48"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41">
         <v>45139</v>
       </c>
@@ -3621,7 +3626,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41">
         <v>45170</v>
       </c>
@@ -3647,7 +3652,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41">
         <v>45200</v>
       </c>
@@ -3667,7 +3672,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="41">
         <v>45231</v>
       </c>
@@ -3693,25 +3698,27 @@
         <v>92</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41">
         <v>45261</v>
       </c>
       <c r="B98" s="20"/>
-      <c r="C98" s="13"/>
+      <c r="C98" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D98" s="40"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H98" s="40"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="47" t="s">
         <v>91</v>
       </c>
@@ -3729,7 +3736,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41">
         <v>45292</v>
       </c>
@@ -3747,7 +3754,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="41">
         <v>45323</v>
       </c>
@@ -3765,7 +3772,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="41">
         <v>45352</v>
       </c>
@@ -3783,7 +3790,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41">
         <v>45383</v>
       </c>
@@ -3801,7 +3808,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="41">
         <v>45413</v>
       </c>
@@ -3819,7 +3826,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41">
         <v>45444</v>
       </c>
@@ -3837,7 +3844,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="41">
         <v>45474</v>
       </c>
@@ -3855,7 +3862,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="41">
         <v>45505</v>
       </c>
@@ -3873,7 +3880,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="41">
         <v>45536</v>
       </c>
@@ -3891,7 +3898,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="41">
         <v>45566</v>
       </c>
@@ -3909,7 +3916,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="41">
         <v>45597</v>
       </c>
@@ -3927,7 +3934,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="41"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3943,7 +3950,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="41"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3959,7 +3966,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="41"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3975,7 +3982,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="41"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3991,7 +3998,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="41"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4007,7 +4014,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="41"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4023,7 +4030,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="41"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4039,7 +4046,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="42"/>
       <c r="B118" s="15"/>
       <c r="C118" s="43"/>
@@ -4057,23 +4064,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4096,34 +4103,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A37" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K47" sqref="K47"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4135,16 +4142,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4153,16 +4160,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4173,16 +4180,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4190,7 +4197,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4203,24 +4210,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4255,7 +4262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4274,12 +4281,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>12.625</v>
+        <v>8.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>45</v>
       </c>
@@ -4301,7 +4308,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -4325,7 +4332,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -4347,7 +4354,7 @@
         <v>43159</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>43313</v>
       </c>
@@ -4371,7 +4378,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>43344</v>
       </c>
@@ -4393,7 +4400,7 @@
         <v>43356</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="20" t="s">
         <v>47</v>
@@ -4413,7 +4420,7 @@
         <v>43353</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>51</v>
       </c>
@@ -4431,7 +4438,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>43647</v>
       </c>
@@ -4453,7 +4460,7 @@
         <v>43655</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>43709</v>
       </c>
@@ -4475,7 +4482,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>44</v>
       </c>
@@ -4493,7 +4500,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>43831</v>
       </c>
@@ -4515,7 +4522,7 @@
         <v>43847</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>43862</v>
       </c>
@@ -4537,7 +4544,7 @@
         <v>43889</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>44075</v>
       </c>
@@ -4559,7 +4566,7 @@
         <v>44088</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>58</v>
       </c>
@@ -4577,7 +4584,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>44409</v>
       </c>
@@ -4599,7 +4606,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
         <v>65</v>
       </c>
@@ -4617,7 +4624,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>44713</v>
       </c>
@@ -4641,7 +4648,7 @@
         <v>44718</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
       <c r="B27" s="20" t="s">
         <v>64</v>
@@ -4663,7 +4670,7 @@
         <v>44729</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>44743</v>
       </c>
@@ -4685,7 +4692,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
       <c r="B29" s="20" t="s">
         <v>64</v>
@@ -4707,7 +4714,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>44774</v>
       </c>
@@ -4729,7 +4736,7 @@
         <v>44793</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
       <c r="B31" s="20" t="s">
         <v>47</v>
@@ -4749,7 +4756,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="20" t="s">
         <v>46</v>
@@ -4771,7 +4778,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>44805</v>
       </c>
@@ -4795,7 +4802,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>44848</v>
       </c>
@@ -4819,7 +4826,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>44866</v>
       </c>
@@ -4843,7 +4850,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>68</v>
       </c>
@@ -4861,7 +4868,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>44927</v>
       </c>
@@ -4879,7 +4886,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>44958</v>
       </c>
@@ -4897,7 +4904,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>44986</v>
       </c>
@@ -4915,7 +4922,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>45017</v>
       </c>
@@ -4933,7 +4940,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>45047</v>
       </c>
@@ -4951,7 +4958,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>45078</v>
       </c>
@@ -4975,7 +4982,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>45108</v>
       </c>
@@ -4999,7 +5006,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>45139</v>
       </c>
@@ -5017,7 +5024,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>45170</v>
       </c>
@@ -5041,7 +5048,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>45200</v>
       </c>
@@ -5065,7 +5072,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>45231</v>
       </c>
@@ -5089,11 +5096,13 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>45261</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C48" s="13"/>
       <c r="D48" s="40"/>
       <c r="E48" s="9"/>
@@ -5102,12 +5111,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H48" s="40"/>
+      <c r="H48" s="40">
+        <v>4</v>
+      </c>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K48" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>91</v>
       </c>
@@ -5125,7 +5138,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>45292</v>
       </c>
@@ -5143,7 +5156,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>45323</v>
       </c>
@@ -5161,7 +5174,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>45352</v>
       </c>
@@ -5179,7 +5192,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>45383</v>
       </c>
@@ -5197,7 +5210,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>45413</v>
       </c>
@@ -5215,7 +5228,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>45444</v>
       </c>
@@ -5233,7 +5246,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>45474</v>
       </c>
@@ -5251,7 +5264,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>45505</v>
       </c>
@@ -5269,7 +5282,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>45536</v>
       </c>
@@ -5287,7 +5300,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>45566</v>
       </c>
@@ -5305,7 +5318,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>45597</v>
       </c>
@@ -5323,7 +5336,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -5339,7 +5352,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -5355,7 +5368,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -5371,7 +5384,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -5387,7 +5400,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -5403,7 +5416,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5419,7 +5432,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -5435,7 +5448,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="42"/>
       <c r="B68" s="15"/>
       <c r="C68" s="43"/>
@@ -5466,10 +5479,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5492,28 +5505,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
@@ -5526,7 +5539,7 @@
       <c r="K1" s="58"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5555,7 +5568,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>3.4540000000000002</v>
       </c>
@@ -5581,7 +5594,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -5596,10 +5609,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -5619,7 +5632,7 @@
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -5645,7 +5658,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -5671,7 +5684,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -5697,7 +5710,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -5723,7 +5736,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -5749,7 +5762,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -5775,7 +5788,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -5801,7 +5814,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -5827,7 +5840,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -5847,7 +5860,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -5867,7 +5880,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -5887,7 +5900,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -5908,7 +5921,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -5929,7 +5942,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -5950,7 +5963,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -5971,7 +5984,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -5992,7 +6005,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -6013,7 +6026,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -6034,7 +6047,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -6055,7 +6068,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -6076,7 +6089,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -6097,7 +6110,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -6118,7 +6131,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -6139,7 +6152,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -6160,7 +6173,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -6181,7 +6194,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -6202,7 +6215,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -6223,7 +6236,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -6244,7 +6257,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -6265,7 +6278,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -6286,7 +6299,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -6307,7 +6320,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -6316,7 +6329,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -6325,7 +6338,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -6334,7 +6347,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -6343,7 +6356,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -6352,7 +6365,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -6361,7 +6374,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -6370,7 +6383,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -6379,7 +6392,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -6388,7 +6401,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -6397,7 +6410,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -6406,7 +6419,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -6415,7 +6428,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -6424,7 +6437,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -6433,7 +6446,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -6442,7 +6455,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -6451,7 +6464,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -6460,7 +6473,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -6469,7 +6482,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -6478,7 +6491,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -6487,7 +6500,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -6496,7 +6509,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -6505,7 +6518,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -6514,7 +6527,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -6523,7 +6536,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -6532,7 +6545,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -6541,7 +6554,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -6550,7 +6563,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -6559,7 +6572,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -6568,7 +6581,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
